--- a/Aditya Verma/Syllabus.xlsx
+++ b/Aditya Verma/Syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\aditya-verma-qns-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D97D06-099E-411B-A335-0EA683B59F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5B7FD6-D1D2-456F-B566-78A662EB8B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="63">
   <si>
     <t>S no.</t>
   </si>
@@ -133,6 +133,87 @@
   </si>
   <si>
     <t>LCS</t>
+  </si>
+  <si>
+    <t>Longest Palindromic subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minimum number of deletion in a string to make it a palindrome</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Print shortest common Supersequence</t>
+  </si>
+  <si>
+    <t>Longest repeating subsequence</t>
+  </si>
+  <si>
+    <t>Read Question carefully</t>
+  </si>
+  <si>
+    <t>Sequence Pattern Matching</t>
+  </si>
+  <si>
+    <t>Don’t do by LCS, do by simple method - see past submission on gfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Don't do using longest common substring, use bottom up - see video</t>
+  </si>
+  <si>
+    <t>Find number of times a string occurs as a subsequence in given string</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>See gfg code for solution</t>
+  </si>
+  <si>
+    <t>length of longest subsequence of one string which is substring of another string</t>
+  </si>
+  <si>
+    <t>See gfg code for solution - In top down, we consider len of Y from 0 to its full Len, so no need for another loop</t>
+  </si>
+  <si>
+    <t>Matrix chain Multiplication</t>
+  </si>
+  <si>
+    <t>MCM</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>Evaluate expression to true</t>
+  </si>
+  <si>
+    <t>T V Imp</t>
+  </si>
+  <si>
+    <t>Scramble string</t>
+  </si>
+  <si>
+    <t>Egg Dropping Problem</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Diameter of binary tree</t>
+  </si>
+  <si>
+    <t>Maximum path sum from any node to any node</t>
+  </si>
+  <si>
+    <t>Maximum path sum from leaf to leaf node</t>
+  </si>
+  <si>
+    <t>See word file for note</t>
   </si>
 </sst>
 </file>
@@ -179,7 +260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +297,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -230,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -239,13 +332,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -527,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,22 +636,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -866,7 +961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -889,7 +984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -905,14 +1000,14 @@
       <c r="F18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="8">
         <v>44574</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -935,7 +1030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -945,8 +1040,8 @@
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>9</v>
+      <c r="E20" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>27</v>
@@ -958,24 +1053,392 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="3">
+        <v>44575</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="3">
+        <v>44575</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="3">
+        <v>44575</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="3">
+        <v>44576</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="3">
+        <v>44576</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="3">
+        <v>44577</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="3">
+        <v>44577</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="3">
+        <v>44577</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="3">
+        <v>44580</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="3">
+        <v>44580</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="3">
+        <v>44580</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="3">
+        <v>44581</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="3">
+        <v>44581</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="3">
+        <v>44583</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="3">
+        <v>44583</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="3">
+        <v>44583</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1013,8 +1476,40 @@
     <hyperlink ref="B19" r:id="rId28" xr:uid="{BD58F709-B59F-4CE1-A1C7-7C59BF798D1E}"/>
     <hyperlink ref="B20" r:id="rId29" xr:uid="{D05E4955-CC47-4D0B-830C-E329D0BEF122}"/>
     <hyperlink ref="C20" r:id="rId30" xr:uid="{5A97016E-C7B3-4068-82D0-A33E304EE2E2}"/>
+    <hyperlink ref="B21" r:id="rId31" xr:uid="{894A5518-AC76-49CE-AFA6-520BFDE9C488}"/>
+    <hyperlink ref="C21" r:id="rId32" xr:uid="{1A25DA40-6211-489E-8A31-542927CCB580}"/>
+    <hyperlink ref="B22" r:id="rId33" xr:uid="{E93ECC9F-A492-4370-99EA-00C98739E051}"/>
+    <hyperlink ref="C22" r:id="rId34" xr:uid="{FFA330C5-109E-48B2-873A-24CDC3F34034}"/>
+    <hyperlink ref="C23" r:id="rId35" xr:uid="{44C1266F-0E77-4BFC-B56E-9D79C5D954C1}"/>
+    <hyperlink ref="B23" r:id="rId36" xr:uid="{357B8833-06EE-41F5-BB61-D88E17A56F95}"/>
+    <hyperlink ref="B24" r:id="rId37" xr:uid="{4B4D6CBB-A5C8-438C-B81A-EDC581199116}"/>
+    <hyperlink ref="C24" r:id="rId38" xr:uid="{BCAEB321-B2BD-4D8E-934F-D623F5E5BFAF}"/>
+    <hyperlink ref="B25" r:id="rId39" xr:uid="{07E1C135-CB19-4A7B-9172-C767598BFAE6}"/>
+    <hyperlink ref="C25" r:id="rId40" xr:uid="{9172EC19-B4C1-4FCD-BE18-9ABE0AB76789}"/>
+    <hyperlink ref="B26" r:id="rId41" xr:uid="{CC612425-16D7-4B77-8033-863C8C54137D}"/>
+    <hyperlink ref="C26" r:id="rId42" xr:uid="{A1FC2BF3-E575-45A0-A22A-D51617D85B70}"/>
+    <hyperlink ref="B27" r:id="rId43" xr:uid="{BABBB2FF-EB7D-4810-BE67-4EB64E40635D}"/>
+    <hyperlink ref="C27" r:id="rId44" xr:uid="{EA81F61A-759D-4060-9766-B21568BC0A4C}"/>
+    <hyperlink ref="B28" r:id="rId45" xr:uid="{E4520FE7-91F7-4A2D-8C46-63A743813479}"/>
+    <hyperlink ref="C28" r:id="rId46" xr:uid="{8D71D20F-CEDA-42F2-BB52-7EDA3E1820DC}"/>
+    <hyperlink ref="B29" r:id="rId47" xr:uid="{1DE089B1-1FE9-4536-A908-FD606DB15898}"/>
+    <hyperlink ref="C29" r:id="rId48" xr:uid="{DCA9D9CE-CC53-4234-B5D9-18EBE2E99637}"/>
+    <hyperlink ref="B30" r:id="rId49" xr:uid="{BD017481-E652-44FC-B915-F316C15B4E5E}"/>
+    <hyperlink ref="C30" r:id="rId50" xr:uid="{A0605B4B-D793-4928-A68A-3D0A7E3FD20D}"/>
+    <hyperlink ref="B31" r:id="rId51" xr:uid="{3C9219ED-72E7-4A8D-B651-609B4DB150D4}"/>
+    <hyperlink ref="C31" r:id="rId52" xr:uid="{366AE90F-22F2-4DF3-AB5A-C942E8C6A913}"/>
+    <hyperlink ref="B32" r:id="rId53" xr:uid="{E2743A60-C4DB-4B5A-8672-0CAD8DC277B6}"/>
+    <hyperlink ref="C32" r:id="rId54" xr:uid="{B6754F51-427B-45FF-A1C5-4ECFFEC8B3B6}"/>
+    <hyperlink ref="B33" r:id="rId55" xr:uid="{E3881812-27F3-45F4-9060-E6CD276E8B6F}"/>
+    <hyperlink ref="C33" r:id="rId56" xr:uid="{CCB8141C-BE10-4B44-A25D-661888C118B2}"/>
+    <hyperlink ref="C34" r:id="rId57" xr:uid="{CEF68F4B-2EF3-43C0-BE6A-8B2C56A31A31}"/>
+    <hyperlink ref="B34" r:id="rId58" xr:uid="{4E76D8A7-51B6-4014-A8A2-153DB8903E1F}"/>
+    <hyperlink ref="C35" r:id="rId59" xr:uid="{DADF59CA-5176-449E-AD1E-136E348AB243}"/>
+    <hyperlink ref="B35" r:id="rId60" xr:uid="{6E9E73E4-5EC7-4D6A-BCBA-84E3BF298846}"/>
+    <hyperlink ref="C36" r:id="rId61" xr:uid="{687336A0-C21E-4C3E-8BD7-E1235073D56D}"/>
+    <hyperlink ref="B36" r:id="rId62" xr:uid="{EC769866-B2F6-464A-A8FC-B36B85D89D64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId63"/>
 </worksheet>
 </file>